--- a/starterkit/php/__PREFIX__Control.xlsx
+++ b/starterkit/php/__PREFIX__Control.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C72755-65C1-413F-9954-A5616A3B51DE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F1EFEA-DAA8-45C8-B461-89747A6FB579}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>state</t>
     <phoneticPr fontId="2"/>
@@ -129,6 +129,10 @@
   </si>
   <si>
     <t>brcond</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>basestate</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -672,13 +676,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
@@ -734,78 +738,78 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:5" s="7" customFormat="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" s="9" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" s="11" customFormat="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" s="11" customFormat="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" s="11" customFormat="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" s="11" customFormat="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" s="11" customFormat="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" s="11" customFormat="1">
       <c r="A11" s="10"/>
-      <c r="B11" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:5" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="12" spans="1:5" s="11" customFormat="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:5" s="11" customFormat="1">
+    <row r="13" spans="1:5" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -814,7 +818,7 @@
     <row r="14" spans="1:5" s="11" customFormat="1">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -822,24 +826,24 @@
     </row>
     <row r="15" spans="1:5" s="11" customFormat="1">
       <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:5" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="16" spans="1:5" s="11" customFormat="1">
       <c r="A16" s="10"/>
-      <c r="B16" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -847,16 +851,16 @@
     </row>
     <row r="18" spans="1:5" s="11" customFormat="1">
       <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="B18" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" s="11" customFormat="1">
       <c r="A19" s="10"/>
-      <c r="B19" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -864,7 +868,7 @@
     <row r="20" spans="1:5" s="11" customFormat="1">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -872,16 +876,16 @@
     </row>
     <row r="21" spans="1:5" s="11" customFormat="1">
       <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" s="11" customFormat="1">
       <c r="A22" s="10"/>
-      <c r="B22" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -889,7 +893,7 @@
     <row r="23" spans="1:5" s="11" customFormat="1">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -897,51 +901,60 @@
     </row>
     <row r="24" spans="1:5" s="11" customFormat="1">
       <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+      <c r="B24" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:5" s="13" customFormat="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+    <row r="25" spans="1:5" s="11" customFormat="1">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" s="13" customFormat="1">
       <c r="A26" s="12"/>
       <c r="B26" s="12" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:5" s="15" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14" t="s">
+    <row r="27" spans="1:5" s="13" customFormat="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" s="15" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="1:5" s="16" customFormat="1"/>
-    <row r="29" spans="1:5" s="16" customFormat="1">
-      <c r="B29" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" s="16" customFormat="1"/>
     <row r="30" spans="1:5" s="16" customFormat="1">
       <c r="B30" s="16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="16" customFormat="1">
       <c r="B31" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="16" customFormat="1">
+      <c r="B32" s="16" t="s">
         <v>17</v>
       </c>
     </row>

--- a/starterkit/php/__PREFIX__Control.xlsx
+++ b/starterkit/php/__PREFIX__Control.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F1EFEA-DAA8-45C8-B461-89747A6FB579}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8456C3C6-A235-4F09-BB2A-83DC85D103A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>state</t>
     <phoneticPr fontId="2"/>
@@ -133,6 +133,10 @@
   </si>
   <si>
     <t>basestate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>branch-cmt</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -676,13 +680,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
@@ -927,34 +931,43 @@
     <row r="27" spans="1:5" s="13" customFormat="1">
       <c r="A27" s="12"/>
       <c r="B27" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="1:5" s="15" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14" t="s">
+    <row r="28" spans="1:5" s="13" customFormat="1">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:5" s="15" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="1:5" s="16" customFormat="1"/>
-    <row r="30" spans="1:5" s="16" customFormat="1">
-      <c r="B30" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" s="16" customFormat="1"/>
     <row r="31" spans="1:5" s="16" customFormat="1">
       <c r="B31" s="16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="16" customFormat="1">
       <c r="B32" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" s="16" customFormat="1">
+      <c r="B33" s="16" t="s">
         <v>17</v>
       </c>
     </row>
